--- a/data/hugo_data.xlsx
+++ b/data/hugo_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E7B2C-FB2F-46DC-9B54-EBD3706F378E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA500B1E-8318-4F92-B614-7ADDE6782279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0414DF85-DA66-4C3E-84B1-0A8580BB5C6B}"/>
   </bookViews>
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="E5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1574,7 @@
         <v>2020</v>
       </c>
       <c r="E2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1621,20 +1621,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>2020</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
+      <c r="E5" s="10">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2838,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F1F6D3-8BF4-41E3-A20C-13EE93DB5F99}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -4142,7 +4142,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,20 +4233,20 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="5">
         <v>2020</v>
       </c>
-      <c r="E5" s="13">
-        <v>0</v>
+      <c r="E5" s="5">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
